--- a/data/child_baseline.xlsx
+++ b/data/child_baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madelinemeyers/Documents/GitHub/iteratedlearning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF9DBC-FA9F-D649-8AB6-60A054BCAA9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0897D1-2E14-E844-BCB0-C34DB091E825}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1780" windowWidth="27540" windowHeight="17440" xr2:uid="{6A6CFE2D-303C-F047-A20D-4B1ADB974923}"/>
+    <workbookView xWindow="400" yWindow="380" windowWidth="27540" windowHeight="17440" xr2:uid="{6A6CFE2D-303C-F047-A20D-4B1ADB974923}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="1038">
   <si>
     <t>unique_id</t>
   </si>
@@ -2523,10 +2523,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 101
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
 </t>
   </si>
@@ -2708,6 +2704,1021 @@
   </si>
   <si>
     <t xml:space="preserve">1 0 0 0 0 1 1 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>whof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 1 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>jhbxbcy</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>fsdfjdkf</t>
+  </si>
+  <si>
+    <t>iitwh</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>gnn</t>
+  </si>
+  <si>
+    <t>hgj</t>
+  </si>
+  <si>
+    <t>cvb</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>sdfdf</t>
+  </si>
+  <si>
+    <t>xczcxx</t>
+  </si>
+  <si>
+    <t>eqwew</t>
+  </si>
+  <si>
+    <t>vctbxff</t>
+  </si>
+  <si>
+    <t>maunr</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>ijt</t>
+  </si>
+  <si>
+    <t>jlbm</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>juiznthp</t>
+  </si>
+  <si>
+    <t>pwixztm</t>
+  </si>
+  <si>
+    <t>1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>kwyjsjq</t>
+  </si>
+  <si>
+    <t>rkwqkrv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>lghk</t>
+  </si>
+  <si>
+    <t>fpejfy</t>
+  </si>
+  <si>
+    <t>1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0
+</t>
+  </si>
+  <si>
+    <t>0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>ucqgq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>agkjvag</t>
+  </si>
+  <si>
+    <t>gkybes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>tygdlci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1
+</t>
+  </si>
+  <si>
+    <t>1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>rgovutwyq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>cxqgeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 1 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>usxiwtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>jxgyvda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0
+</t>
+  </si>
+  <si>
+    <t>0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1
+</t>
+  </si>
+  <si>
+    <t>1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>szvolnsz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t>1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>cghtkav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>pmqc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>qvyokc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 1 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 1 1 1 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1
+</t>
+  </si>
+  <si>
+    <t>egrlwch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>cxkmei</t>
+  </si>
+  <si>
+    <t>1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>dcwvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1
+</t>
+  </si>
+  <si>
+    <t>tmoj</t>
+  </si>
+  <si>
+    <t>1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 1 1 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1
+</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0
+</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
 </t>
   </si>
 </sst>
@@ -3081,9 +4092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB43217-FFE0-A04A-BFF2-227E0012055F}">
   <dimension ref="A1:BF139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF75" sqref="BF75"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB72" sqref="AB72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15099,7 +16110,7 @@
         <v>65</v>
       </c>
       <c r="AD71" s="9" t="s">
-        <v>700</v>
+        <v>1037</v>
       </c>
       <c r="AE71" s="6">
         <v>5</v>
@@ -15114,7 +16125,7 @@
         <v>67</v>
       </c>
       <c r="AI71" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AJ71" s="6">
         <v>6</v>
@@ -15129,7 +16140,7 @@
         <v>64</v>
       </c>
       <c r="AN71" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AO71" s="6">
         <v>7</v>
@@ -15144,7 +16155,7 @@
         <v>66</v>
       </c>
       <c r="AS71" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AT71" s="6">
         <v>8</v>
@@ -15159,7 +16170,7 @@
         <v>63</v>
       </c>
       <c r="AX71" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AY71" s="6">
         <v>9</v>
@@ -15174,7 +16185,7 @@
         <v>68</v>
       </c>
       <c r="BC71" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="BD71" s="6">
         <v>1</v>
@@ -15185,7 +16196,7 @@
     </row>
     <row r="72" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>606</v>
@@ -15267,10 +16278,10 @@
         <v>28</v>
       </c>
       <c r="AC72" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AD72" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="AD72" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="AE72" s="6">
         <v>5</v>
@@ -15282,10 +16293,10 @@
         <v>61</v>
       </c>
       <c r="AH72" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AI72" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AJ72" s="6">
         <v>6</v>
@@ -15300,7 +16311,7 @@
         <v>65</v>
       </c>
       <c r="AN72" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO72" s="6">
         <v>7</v>
@@ -15312,10 +16323,10 @@
         <v>22</v>
       </c>
       <c r="AR72" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="AS72" s="9" t="s">
         <v>711</v>
-      </c>
-      <c r="AS72" s="9" t="s">
-        <v>712</v>
       </c>
       <c r="AT72" s="6">
         <v>8</v>
@@ -15330,7 +16341,7 @@
         <v>623</v>
       </c>
       <c r="AX72" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AY72" s="6">
         <v>9</v>
@@ -15342,21 +16353,21 @@
         <v>16</v>
       </c>
       <c r="BB72" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="BC72" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="BC72" s="9" t="s">
+      <c r="BD72" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="BD72" s="6" t="s">
-        <v>716</v>
-      </c>
       <c r="BE72" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="73" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>607</v>
@@ -15453,10 +16464,10 @@
         <v>22</v>
       </c>
       <c r="AH73" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="AI73" s="9" t="s">
         <v>718</v>
-      </c>
-      <c r="AI73" s="9" t="s">
-        <v>719</v>
       </c>
       <c r="AJ73" s="6">
         <v>6</v>
@@ -15468,10 +16479,10 @@
         <v>38</v>
       </c>
       <c r="AM73" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="AN73" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="AN73" s="9" t="s">
-        <v>721</v>
       </c>
       <c r="AO73" s="6">
         <v>7</v>
@@ -15483,10 +16494,10 @@
         <v>45</v>
       </c>
       <c r="AR73" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="AS73" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="AS73" s="9" t="s">
-        <v>723</v>
       </c>
       <c r="AT73" s="6">
         <v>8</v>
@@ -15498,10 +16509,10 @@
         <v>19</v>
       </c>
       <c r="AW73" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="AX73" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="AX73" s="9" t="s">
-        <v>725</v>
       </c>
       <c r="AY73" s="6">
         <v>9</v>
@@ -15516,24 +16527,24 @@
         <v>67</v>
       </c>
       <c r="BC73" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="BD73" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BE73" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="74" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D74" s="6">
         <v>64</v>
@@ -15569,7 +16580,7 @@
         <v>61</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P74" s="6">
         <v>2</v>
@@ -15614,7 +16625,7 @@
         <v>63</v>
       </c>
       <c r="AD74" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AE74" s="6">
         <v>5</v>
@@ -15629,7 +16640,7 @@
         <v>65</v>
       </c>
       <c r="AI74" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AJ74" s="6">
         <v>6</v>
@@ -15644,7 +16655,7 @@
         <v>67</v>
       </c>
       <c r="AN74" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AO74" s="6">
         <v>7</v>
@@ -15659,7 +16670,7 @@
         <v>64</v>
       </c>
       <c r="AS74" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AT74" s="6">
         <v>8</v>
@@ -15674,7 +16685,7 @@
         <v>66</v>
       </c>
       <c r="AX74" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AY74" s="6">
         <v>9</v>
@@ -15689,7 +16700,7 @@
         <v>68</v>
       </c>
       <c r="BC74" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="BD74" s="6">
         <v>0</v>
@@ -15703,7 +16714,7 @@
     </row>
     <row r="75" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>71</v>
@@ -15788,7 +16799,7 @@
         <v>68</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AE75" s="6">
         <v>5</v>
@@ -15803,7 +16814,7 @@
         <v>65</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AJ75" s="6">
         <v>6</v>
@@ -15818,7 +16829,7 @@
         <v>63</v>
       </c>
       <c r="AN75" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AO75" s="6">
         <v>7</v>
@@ -15833,7 +16844,7 @@
         <v>66</v>
       </c>
       <c r="AS75" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AT75" s="6">
         <v>8</v>
@@ -15848,7 +16859,7 @@
         <v>64</v>
       </c>
       <c r="AX75" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AY75" s="6">
         <v>9</v>
@@ -15863,7 +16874,7 @@
         <v>67</v>
       </c>
       <c r="BC75" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BD75" s="6">
         <v>1</v>
@@ -15874,13 +16885,13 @@
     </row>
     <row r="76" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>606</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D76" s="6">
         <v>66</v>
@@ -15958,10 +16969,10 @@
         <v>35</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AD76" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AE76" s="6">
         <v>5</v>
@@ -15976,7 +16987,7 @@
         <v>623</v>
       </c>
       <c r="AI76" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AJ76" s="6">
         <v>6</v>
@@ -15988,10 +16999,10 @@
         <v>38</v>
       </c>
       <c r="AM76" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AN76" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AO76" s="6">
         <v>7</v>
@@ -16003,10 +17014,10 @@
         <v>42</v>
       </c>
       <c r="AR76" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AS76" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AT76" s="6">
         <v>8</v>
@@ -16021,7 +17032,7 @@
         <v>65</v>
       </c>
       <c r="AX76" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AY76" s="6">
         <v>9</v>
@@ -16033,10 +17044,10 @@
         <v>17</v>
       </c>
       <c r="BB76" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="BC76" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="BD76" s="6">
         <v>0</v>
@@ -16049,1953 +17060,5628 @@
       </c>
     </row>
     <row r="77" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
-      <c r="AM77" s="1"/>
-      <c r="AN77" s="1"/>
-      <c r="AO77" s="1"/>
-      <c r="AP77" s="1"/>
-      <c r="AQ77" s="1"/>
-      <c r="AR77" s="1"/>
-      <c r="AS77" s="1"/>
-      <c r="AT77" s="1"/>
-      <c r="AU77" s="1"/>
-      <c r="AV77" s="1"/>
-      <c r="AW77" s="1"/>
-      <c r="AX77" s="1"/>
-      <c r="AY77" s="1"/>
-      <c r="AZ77" s="1"/>
-      <c r="BA77" s="1"/>
-      <c r="BB77" s="1"/>
-      <c r="BC77" s="1"/>
-      <c r="BD77" s="1"/>
-      <c r="BE77" s="1"/>
+      <c r="A77" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6">
+        <v>67</v>
+      </c>
+      <c r="E77" s="6">
+        <v>6</v>
+      </c>
+      <c r="F77" s="6">
+        <v>6</v>
+      </c>
+      <c r="G77" s="6">
+        <v>7</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77" s="7">
+        <v>43416</v>
+      </c>
+      <c r="J77" s="8">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1</v>
+      </c>
+      <c r="L77" s="6">
+        <v>0</v>
+      </c>
+      <c r="M77" s="6">
+        <v>34</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="P77" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R77" s="6">
+        <v>23</v>
+      </c>
+      <c r="S77" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T77" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U77" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V77" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="W77" s="6">
+        <v>14</v>
+      </c>
+      <c r="X77" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y77" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="Z77" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA77" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB77" s="6">
+        <v>28</v>
+      </c>
+      <c r="AC77" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD77" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE77" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF77" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG77" s="6">
+        <v>60</v>
+      </c>
+      <c r="AH77" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="AI77" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="AJ77" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK77" s="6">
+        <v>6</v>
+      </c>
+      <c r="AL77" s="6">
+        <v>25</v>
+      </c>
+      <c r="AM77" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="AN77" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="AO77" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP77" s="6">
+        <v>3</v>
+      </c>
+      <c r="AQ77" s="6">
+        <v>29</v>
+      </c>
+      <c r="AR77" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="AS77" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="AT77" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU77" s="6">
+        <v>2</v>
+      </c>
+      <c r="AV77" s="6">
+        <v>15</v>
+      </c>
+      <c r="AW77" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="AX77" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="AY77" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ77" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA77" s="6">
+        <v>25</v>
+      </c>
+      <c r="BB77" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="BC77" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="BD77" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE77" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
-      <c r="AP78" s="1"/>
-      <c r="AQ78" s="1"/>
-      <c r="AR78" s="1"/>
-      <c r="AS78" s="1"/>
-      <c r="AT78" s="1"/>
-      <c r="AU78" s="1"/>
-      <c r="AV78" s="1"/>
-      <c r="AW78" s="1"/>
-      <c r="AX78" s="1"/>
-      <c r="AY78" s="1"/>
-      <c r="AZ78" s="1"/>
-      <c r="BA78" s="1"/>
-      <c r="BB78" s="1"/>
-      <c r="BC78" s="1"/>
-      <c r="BD78" s="1"/>
-      <c r="BE78" s="1"/>
+      <c r="A78" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6">
+        <v>208</v>
+      </c>
+      <c r="E78" s="6">
+        <v>8</v>
+      </c>
+      <c r="F78" s="6">
+        <v>6</v>
+      </c>
+      <c r="G78" s="6">
+        <v>4</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I78" s="7">
+        <v>43442</v>
+      </c>
+      <c r="J78" s="8">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1</v>
+      </c>
+      <c r="L78" s="6">
+        <v>0</v>
+      </c>
+      <c r="M78" s="6">
+        <v>17</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P78" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R78" s="6">
+        <v>26</v>
+      </c>
+      <c r="S78" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T78" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U78" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V78" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="W78" s="6">
+        <v>8</v>
+      </c>
+      <c r="X78" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y78" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z78" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA78" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB78" s="6">
+        <v>18</v>
+      </c>
+      <c r="AC78" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD78" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE78" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF78" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG78" s="6">
+        <v>18</v>
+      </c>
+      <c r="AH78" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="AI78" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="AJ78" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK78" s="6">
+        <v>6</v>
+      </c>
+      <c r="AL78" s="6">
+        <v>22</v>
+      </c>
+      <c r="AM78" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="AN78" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="AO78" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP78" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ78" s="6">
+        <v>20</v>
+      </c>
+      <c r="AR78" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="AS78" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="AT78" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU78" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV78" s="6">
+        <v>21</v>
+      </c>
+      <c r="AW78" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX78" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="AY78" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ78" s="6">
+        <v>5</v>
+      </c>
+      <c r="BA78" s="6">
+        <v>17</v>
+      </c>
+      <c r="BB78" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="BC78" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BD78" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE78" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-      <c r="AP79" s="1"/>
-      <c r="AQ79" s="1"/>
-      <c r="AR79" s="1"/>
-      <c r="AS79" s="1"/>
-      <c r="AT79" s="1"/>
-      <c r="AU79" s="1"/>
-      <c r="AV79" s="1"/>
-      <c r="AW79" s="1"/>
-      <c r="AX79" s="1"/>
-      <c r="AY79" s="1"/>
-      <c r="AZ79" s="1"/>
-      <c r="BA79" s="1"/>
-      <c r="BB79" s="1"/>
-      <c r="BC79" s="1"/>
-      <c r="BD79" s="1"/>
-      <c r="BE79" s="1"/>
+      <c r="A79" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <v>12</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K79" s="6">
+        <v>1</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T79" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA79" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD79" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE79" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF79" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI79" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ79" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK79" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN79" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO79" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP79" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS79" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT79" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU79" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX79" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY79" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ79" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD79" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE79" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
-      <c r="AP80" s="1"/>
-      <c r="AQ80" s="1"/>
-      <c r="AR80" s="1"/>
-      <c r="AS80" s="1"/>
-      <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
-      <c r="AV80" s="1"/>
-      <c r="AW80" s="1"/>
-      <c r="AX80" s="1"/>
-      <c r="AY80" s="1"/>
-      <c r="AZ80" s="1"/>
-      <c r="BA80" s="1"/>
-      <c r="BB80" s="1"/>
-      <c r="BC80" s="1"/>
-      <c r="BD80" s="1"/>
-      <c r="BE80" s="1"/>
+      <c r="A80" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
+        <v>13</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K80" s="6">
+        <v>1</v>
+      </c>
+      <c r="L80" s="6">
+        <v>0</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T80" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA80" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD80" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE80" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF80" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI80" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ80" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK80" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN80" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO80" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP80" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS80" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT80" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU80" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX80" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY80" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ80" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD80" s="6">
+        <v>1</v>
+      </c>
+      <c r="BE80" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
-      <c r="AO81" s="1"/>
-      <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-      <c r="AR81" s="1"/>
-      <c r="AS81" s="1"/>
-      <c r="AT81" s="1"/>
-      <c r="AU81" s="1"/>
-      <c r="AV81" s="1"/>
-      <c r="AW81" s="1"/>
-      <c r="AX81" s="1"/>
-      <c r="AY81" s="1"/>
-      <c r="AZ81" s="1"/>
-      <c r="BA81" s="1"/>
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="1"/>
-      <c r="BD81" s="1"/>
-      <c r="BE81" s="1"/>
+    <row r="81" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
+        <v>14</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T81" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA81" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD81" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE81" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF81" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI81" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ81" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK81" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN81" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO81" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP81" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS81" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT81" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU81" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX81" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY81" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ81" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC81" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD81" s="6">
+        <v>1</v>
+      </c>
+      <c r="BE81" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
-      <c r="AM82" s="1"/>
-      <c r="AN82" s="1"/>
-      <c r="AO82" s="1"/>
-      <c r="AP82" s="1"/>
-      <c r="AQ82" s="1"/>
-      <c r="AR82" s="1"/>
-      <c r="AS82" s="1"/>
-      <c r="AT82" s="1"/>
-      <c r="AU82" s="1"/>
-      <c r="AV82" s="1"/>
-      <c r="AW82" s="1"/>
-      <c r="AX82" s="1"/>
-      <c r="AY82" s="1"/>
-      <c r="AZ82" s="1"/>
-      <c r="BA82" s="1"/>
-      <c r="BB82" s="1"/>
-      <c r="BC82" s="1"/>
-      <c r="BD82" s="1"/>
-      <c r="BE82" s="1"/>
+    <row r="82" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>15</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T82" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA82" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD82" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE82" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF82" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI82" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ82" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK82" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN82" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO82" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP82" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS82" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT82" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU82" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX82" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY82" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ82" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC82" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD82" s="6">
+        <v>1</v>
+      </c>
+      <c r="BE82" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="1"/>
-      <c r="AP83" s="1"/>
-      <c r="AQ83" s="1"/>
-      <c r="AR83" s="1"/>
-      <c r="AS83" s="1"/>
-      <c r="AT83" s="1"/>
-      <c r="AU83" s="1"/>
-      <c r="AV83" s="1"/>
-      <c r="AW83" s="1"/>
-      <c r="AX83" s="1"/>
-      <c r="AY83" s="1"/>
-      <c r="AZ83" s="1"/>
-      <c r="BA83" s="1"/>
-      <c r="BB83" s="1"/>
-      <c r="BC83" s="1"/>
-      <c r="BD83" s="1"/>
-      <c r="BE83" s="1"/>
+    <row r="83" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6">
+        <v>16</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K83" s="6">
+        <v>1</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P83" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T83" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD83" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE83" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF83" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ83" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK83" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN83" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO83" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP83" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS83" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT83" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU83" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX83" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY83" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ83" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC83" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD83" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="BE83" s="6" t="s">
+        <v>780</v>
+      </c>
     </row>
-    <row r="84" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
-      <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AL84" s="1"/>
-      <c r="AM84" s="1"/>
-      <c r="AN84" s="1"/>
-      <c r="AO84" s="1"/>
-      <c r="AP84" s="1"/>
-      <c r="AQ84" s="1"/>
-      <c r="AR84" s="1"/>
-      <c r="AS84" s="1"/>
-      <c r="AT84" s="1"/>
-      <c r="AU84" s="1"/>
-      <c r="AV84" s="1"/>
-      <c r="AW84" s="1"/>
-      <c r="AX84" s="1"/>
-      <c r="AY84" s="1"/>
-      <c r="AZ84" s="1"/>
-      <c r="BA84" s="1"/>
-      <c r="BB84" s="1"/>
-      <c r="BC84" s="1"/>
-      <c r="BD84" s="1"/>
-      <c r="BE84" s="1"/>
+    <row r="84" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
+        <v>17</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K84" s="6">
+        <v>1</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T84" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA84" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE84" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF84" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI84" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ84" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK84" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN84" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO84" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP84" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT84" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU84" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX84" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY84" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ84" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC84" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD84" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="BE84" s="6" t="s">
+        <v>780</v>
+      </c>
     </row>
-    <row r="85" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
-      <c r="AP85" s="1"/>
-      <c r="AQ85" s="1"/>
-      <c r="AR85" s="1"/>
-      <c r="AS85" s="1"/>
-      <c r="AT85" s="1"/>
-      <c r="AU85" s="1"/>
-      <c r="AV85" s="1"/>
-      <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="1"/>
-      <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BD85" s="1"/>
-      <c r="BE85" s="1"/>
+    <row r="85" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6">
+        <v>18</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K85" s="6">
+        <v>1</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T85" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA85" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE85" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF85" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI85" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ85" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK85" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN85" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO85" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP85" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT85" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU85" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX85" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY85" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ85" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC85" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD85" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="BE85" s="6" t="s">
+        <v>780</v>
+      </c>
     </row>
-    <row r="86" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
-      <c r="AP86" s="1"/>
-      <c r="AQ86" s="1"/>
-      <c r="AR86" s="1"/>
-      <c r="AS86" s="1"/>
-      <c r="AT86" s="1"/>
-      <c r="AU86" s="1"/>
-      <c r="AV86" s="1"/>
-      <c r="AW86" s="1"/>
-      <c r="AX86" s="1"/>
-      <c r="AY86" s="1"/>
-      <c r="AZ86" s="1"/>
-      <c r="BA86" s="1"/>
-      <c r="BB86" s="1"/>
-      <c r="BC86" s="1"/>
-      <c r="BD86" s="1"/>
-      <c r="BE86" s="1"/>
+    <row r="86" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
+        <v>19</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K86" s="6">
+        <v>1</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P86" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T86" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA86" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE86" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF86" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI86" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ86" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK86" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN86" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO86" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP86" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS86" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT86" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU86" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX86" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY86" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ86" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC86" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD86" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="BE86" s="6" t="s">
+        <v>780</v>
+      </c>
     </row>
-    <row r="87" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-      <c r="AR87" s="1"/>
-      <c r="AS87" s="1"/>
-      <c r="AT87" s="1"/>
-      <c r="AU87" s="1"/>
-      <c r="AV87" s="1"/>
-      <c r="AW87" s="1"/>
-      <c r="AX87" s="1"/>
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
-      <c r="BC87" s="1"/>
-      <c r="BD87" s="1"/>
-      <c r="BE87" s="1"/>
+    <row r="87" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6">
+        <v>20</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA87" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD87" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE87" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF87" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI87" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ87" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK87" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN87" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO87" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP87" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS87" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT87" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU87" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX87" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY87" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ87" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC87" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD87" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="BE87" s="6" t="s">
+        <v>780</v>
+      </c>
     </row>
-    <row r="88" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
-      <c r="AP88" s="1"/>
-      <c r="AQ88" s="1"/>
-      <c r="AR88" s="1"/>
-      <c r="AS88" s="1"/>
-      <c r="AT88" s="1"/>
-      <c r="AU88" s="1"/>
-      <c r="AV88" s="1"/>
-      <c r="AW88" s="1"/>
-      <c r="AX88" s="1"/>
-      <c r="AY88" s="1"/>
-      <c r="AZ88" s="1"/>
-      <c r="BA88" s="1"/>
-      <c r="BB88" s="1"/>
-      <c r="BC88" s="1"/>
-      <c r="BD88" s="1"/>
-      <c r="BE88" s="1"/>
+    <row r="88" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D88" s="6">
+        <v>5</v>
+      </c>
+      <c r="E88" s="6">
+        <v>7</v>
+      </c>
+      <c r="F88" s="6">
+        <v>2</v>
+      </c>
+      <c r="G88" s="6">
+        <v>8</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I88" s="7">
+        <v>43486</v>
+      </c>
+      <c r="J88" s="8">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1</v>
+      </c>
+      <c r="L88" s="6">
+        <v>0</v>
+      </c>
+      <c r="M88" s="6">
+        <v>15</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O88" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P88" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R88" s="6">
+        <v>15</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T88" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U88" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V88" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="W88" s="6">
+        <v>12</v>
+      </c>
+      <c r="X88" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y88" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z88" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA88" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB88" s="6">
+        <v>35</v>
+      </c>
+      <c r="AC88" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="AD88" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="AE88" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF88" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG88" s="6">
+        <v>22</v>
+      </c>
+      <c r="AH88" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="AI88" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="AJ88" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK88" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL88" s="6">
+        <v>20</v>
+      </c>
+      <c r="AM88" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="AN88" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="AO88" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP88" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ88" s="6">
+        <v>19</v>
+      </c>
+      <c r="AR88" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="AS88" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="AT88" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU88" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV88" s="6">
+        <v>14</v>
+      </c>
+      <c r="AW88" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="AX88" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="AY88" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ88" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA88" s="6">
+        <v>16</v>
+      </c>
+      <c r="BB88" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC88" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="BD88" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE88" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
-      <c r="AY89" s="1"/>
-      <c r="AZ89" s="1"/>
-      <c r="BA89" s="1"/>
-      <c r="BB89" s="1"/>
-      <c r="BC89" s="1"/>
-      <c r="BD89" s="1"/>
-      <c r="BE89" s="1"/>
+    <row r="89" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="D89" s="6">
+        <v>6</v>
+      </c>
+      <c r="E89" s="6">
+        <v>7</v>
+      </c>
+      <c r="F89" s="6">
+        <v>6</v>
+      </c>
+      <c r="G89" s="6">
+        <v>6</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89" s="7">
+        <v>43486</v>
+      </c>
+      <c r="J89" s="8">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="K89" s="6">
+        <v>1</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0</v>
+      </c>
+      <c r="M89" s="6">
+        <v>12</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P89" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R89" s="6">
+        <v>12</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T89" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U89" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V89" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="W89" s="6">
+        <v>6</v>
+      </c>
+      <c r="X89" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y89" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z89" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="6">
+        <v>13</v>
+      </c>
+      <c r="AC89" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD89" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE89" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF89" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG89" s="6">
+        <v>40</v>
+      </c>
+      <c r="AH89" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="AI89" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="AJ89" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK89" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL89" s="6">
+        <v>35</v>
+      </c>
+      <c r="AM89" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="AN89" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="AO89" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP89" s="6">
+        <v>6</v>
+      </c>
+      <c r="AQ89" s="6">
+        <v>25</v>
+      </c>
+      <c r="AR89" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="AS89" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="AT89" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU89" s="6">
+        <v>2</v>
+      </c>
+      <c r="AV89" s="6">
+        <v>19</v>
+      </c>
+      <c r="AW89" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="AX89" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="AY89" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ89" s="6">
+        <v>3</v>
+      </c>
+      <c r="BA89" s="6">
+        <v>29</v>
+      </c>
+      <c r="BB89" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC89" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="BD89" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE89" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
-      <c r="AR90" s="1"/>
-      <c r="AS90" s="1"/>
-      <c r="AT90" s="1"/>
-      <c r="AU90" s="1"/>
-      <c r="AV90" s="1"/>
-      <c r="AW90" s="1"/>
-      <c r="AX90" s="1"/>
-      <c r="AY90" s="1"/>
-      <c r="AZ90" s="1"/>
-      <c r="BA90" s="1"/>
-      <c r="BB90" s="1"/>
-      <c r="BC90" s="1"/>
-      <c r="BD90" s="1"/>
-      <c r="BE90" s="1"/>
+    <row r="90" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="D90" s="6">
+        <v>8</v>
+      </c>
+      <c r="E90" s="6">
+        <v>6</v>
+      </c>
+      <c r="F90" s="6">
+        <v>2</v>
+      </c>
+      <c r="G90" s="6">
+        <v>9</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I90" s="7">
+        <v>43486</v>
+      </c>
+      <c r="J90" s="8">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="K90" s="6">
+        <v>1</v>
+      </c>
+      <c r="L90" s="6">
+        <v>0</v>
+      </c>
+      <c r="M90" s="6">
+        <v>15</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q90" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R90" s="6">
+        <v>14</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T90" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U90" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V90" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="W90" s="6">
+        <v>19</v>
+      </c>
+      <c r="X90" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y90" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z90" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA90" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB90" s="6">
+        <v>26</v>
+      </c>
+      <c r="AC90" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="AD90" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="AE90" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF90" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG90" s="6">
+        <v>19</v>
+      </c>
+      <c r="AH90" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="AI90" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="AJ90" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK90" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL90" s="6">
+        <v>22</v>
+      </c>
+      <c r="AM90" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="AN90" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="AO90" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP90" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ90" s="6">
+        <v>14</v>
+      </c>
+      <c r="AR90" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="AS90" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="AT90" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU90" s="6">
+        <v>6</v>
+      </c>
+      <c r="AV90" s="6">
+        <v>35</v>
+      </c>
+      <c r="AW90" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX90" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="AY90" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ90" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA90" s="6">
+        <v>44</v>
+      </c>
+      <c r="BB90" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="BC90" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="BD90" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE90" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="1"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-      <c r="AP91" s="1"/>
-      <c r="AQ91" s="1"/>
-      <c r="AR91" s="1"/>
-      <c r="AS91" s="1"/>
-      <c r="AT91" s="1"/>
-      <c r="AU91" s="1"/>
-      <c r="AV91" s="1"/>
-      <c r="AW91" s="1"/>
-      <c r="AX91" s="1"/>
-      <c r="AY91" s="1"/>
-      <c r="AZ91" s="1"/>
-      <c r="BA91" s="1"/>
-      <c r="BB91" s="1"/>
-      <c r="BC91" s="1"/>
-      <c r="BD91" s="1"/>
-      <c r="BE91" s="1"/>
+    <row r="91" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="D91" s="6">
+        <v>13</v>
+      </c>
+      <c r="E91" s="6">
+        <v>7</v>
+      </c>
+      <c r="F91" s="6">
+        <v>2</v>
+      </c>
+      <c r="G91" s="6">
+        <v>10</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I91" s="7">
+        <v>43486</v>
+      </c>
+      <c r="J91" s="8">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="K91" s="6">
+        <v>1</v>
+      </c>
+      <c r="L91" s="6">
+        <v>0</v>
+      </c>
+      <c r="M91" s="6">
+        <v>41</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="P91" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R91" s="6">
+        <v>13</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T91" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U91" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V91" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="W91" s="6">
+        <v>11</v>
+      </c>
+      <c r="X91" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y91" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z91" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="6">
+        <v>30</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AD91" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="AE91" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF91" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG91" s="6">
+        <v>16</v>
+      </c>
+      <c r="AH91" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="AI91" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="AJ91" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK91" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL91" s="6">
+        <v>37</v>
+      </c>
+      <c r="AM91" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="AN91" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="AO91" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP91" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ91" s="6">
+        <v>29</v>
+      </c>
+      <c r="AR91" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="AS91" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="AT91" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU91" s="6">
+        <v>6</v>
+      </c>
+      <c r="AV91" s="6">
+        <v>25</v>
+      </c>
+      <c r="AW91" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX91" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="AY91" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ91" s="6">
+        <v>5</v>
+      </c>
+      <c r="BA91" s="6">
+        <v>47</v>
+      </c>
+      <c r="BB91" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="BC91" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="BD91" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE91" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
-      <c r="AM92" s="1"/>
-      <c r="AN92" s="1"/>
-      <c r="AO92" s="1"/>
-      <c r="AP92" s="1"/>
-      <c r="AQ92" s="1"/>
-      <c r="AR92" s="1"/>
-      <c r="AS92" s="1"/>
-      <c r="AT92" s="1"/>
-      <c r="AU92" s="1"/>
-      <c r="AV92" s="1"/>
-      <c r="AW92" s="1"/>
-      <c r="AX92" s="1"/>
-      <c r="AY92" s="1"/>
-      <c r="AZ92" s="1"/>
-      <c r="BA92" s="1"/>
-      <c r="BB92" s="1"/>
-      <c r="BC92" s="1"/>
-      <c r="BD92" s="1"/>
-      <c r="BE92" s="1"/>
+    <row r="92" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="D92" s="6">
+        <v>14</v>
+      </c>
+      <c r="E92" s="6">
+        <v>7</v>
+      </c>
+      <c r="F92" s="6">
+        <v>2</v>
+      </c>
+      <c r="G92" s="6">
+        <v>11</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I92" s="7">
+        <v>43486</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="K92" s="6">
+        <v>1</v>
+      </c>
+      <c r="L92" s="6">
+        <v>0</v>
+      </c>
+      <c r="M92" s="6">
+        <v>13</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P92" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R92" s="6">
+        <v>8</v>
+      </c>
+      <c r="S92" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T92" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U92" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="V92" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="W92" s="6">
+        <v>15</v>
+      </c>
+      <c r="X92" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y92" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z92" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA92" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB92" s="6">
+        <v>36</v>
+      </c>
+      <c r="AC92" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="AD92" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="AE92" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF92" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG92" s="6">
+        <v>20</v>
+      </c>
+      <c r="AH92" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="AI92" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="AJ92" s="6">
+        <v>6</v>
+      </c>
+      <c r="AK92" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL92" s="6">
+        <v>26</v>
+      </c>
+      <c r="AM92" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="AN92" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="AO92" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP92" s="6">
+        <v>3</v>
+      </c>
+      <c r="AQ92" s="6">
+        <v>35</v>
+      </c>
+      <c r="AR92" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="AS92" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="AT92" s="6">
+        <v>8</v>
+      </c>
+      <c r="AU92" s="6">
+        <v>4</v>
+      </c>
+      <c r="AV92" s="6">
+        <v>25</v>
+      </c>
+      <c r="AW92" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="AX92" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="AY92" s="6">
+        <v>9</v>
+      </c>
+      <c r="AZ92" s="6">
+        <v>5</v>
+      </c>
+      <c r="BA92" s="6">
+        <v>18</v>
+      </c>
+      <c r="BB92" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC92" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="BD92" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE92" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>785</v>
+      </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AF93" s="1"/>
-      <c r="AG93" s="1"/>
-      <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-      <c r="AK93" s="1"/>
-      <c r="AL93" s="1"/>
-      <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
-      <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
-      <c r="AQ93" s="1"/>
-      <c r="AR93" s="1"/>
-      <c r="AS93" s="1"/>
-      <c r="AT93" s="1"/>
-      <c r="AU93" s="1"/>
-      <c r="AV93" s="1"/>
-      <c r="AW93" s="1"/>
-      <c r="AX93" s="1"/>
-      <c r="AY93" s="1"/>
-      <c r="AZ93" s="1"/>
-      <c r="BA93" s="1"/>
-      <c r="BB93" s="1"/>
-      <c r="BC93" s="1"/>
-      <c r="BD93" s="1"/>
-      <c r="BE93" s="1"/>
+      <c r="D93" s="1">
+        <v>15</v>
+      </c>
+      <c r="E93" s="1">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3</v>
+      </c>
+      <c r="G93" s="1">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93" s="3">
+        <v>43486</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>38</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="P93" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R93" s="1">
+        <v>48</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="U93" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V93" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W93" s="1">
+        <v>13</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y93" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD93" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH93" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="AI93" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK93" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL93" s="1">
+        <v>27</v>
+      </c>
+      <c r="AM93" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AN93" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="AO93" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP93" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ93" s="1">
+        <v>27</v>
+      </c>
+      <c r="AR93" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="AS93" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="AT93" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU93" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV93" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW93" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AX93" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="AY93" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ93" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA93" s="1">
+        <v>35</v>
+      </c>
+      <c r="BB93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC93" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="BD93" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE93" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF93" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
-      <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-      <c r="AM94" s="1"/>
-      <c r="AN94" s="1"/>
-      <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
-      <c r="AQ94" s="1"/>
-      <c r="AR94" s="1"/>
-      <c r="AS94" s="1"/>
-      <c r="AT94" s="1"/>
-      <c r="AU94" s="1"/>
-      <c r="AV94" s="1"/>
-      <c r="AW94" s="1"/>
-      <c r="AX94" s="1"/>
-      <c r="AY94" s="1"/>
-      <c r="AZ94" s="1"/>
-      <c r="BA94" s="1"/>
-      <c r="BB94" s="1"/>
-      <c r="BC94" s="1"/>
-      <c r="BD94" s="1"/>
-      <c r="BE94" s="1"/>
+    <row r="94" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D94" s="1">
+        <v>16</v>
+      </c>
+      <c r="E94" s="1">
+        <v>8</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>12</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94" s="3">
+        <v>43486</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>13</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P94" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R94" s="1">
+        <v>15</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U94" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V94" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W94" s="1">
+        <v>7</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y94" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>36</v>
+      </c>
+      <c r="AC94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD94" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>17</v>
+      </c>
+      <c r="AH94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI94" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL94" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN94" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="AO94" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP94" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ94" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS94" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT94" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV94" s="1">
+        <v>18</v>
+      </c>
+      <c r="AW94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX94" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="AY94" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ94" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA94" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC94" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="BD94" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE94" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
-      <c r="AE95" s="1"/>
-      <c r="AF95" s="1"/>
-      <c r="AG95" s="1"/>
-      <c r="AH95" s="1"/>
-      <c r="AI95" s="1"/>
-      <c r="AJ95" s="1"/>
-      <c r="AK95" s="1"/>
-      <c r="AL95" s="1"/>
-      <c r="AM95" s="1"/>
-      <c r="AN95" s="1"/>
-      <c r="AO95" s="1"/>
-      <c r="AP95" s="1"/>
-      <c r="AQ95" s="1"/>
-      <c r="AR95" s="1"/>
-      <c r="AS95" s="1"/>
-      <c r="AT95" s="1"/>
-      <c r="AU95" s="1"/>
-      <c r="AV95" s="1"/>
-      <c r="AW95" s="1"/>
-      <c r="AX95" s="1"/>
-      <c r="AY95" s="1"/>
-      <c r="AZ95" s="1"/>
-      <c r="BA95" s="1"/>
-      <c r="BB95" s="1"/>
-      <c r="BC95" s="1"/>
-      <c r="BD95" s="1"/>
-      <c r="BE95" s="1"/>
+    <row r="95" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D95" s="1">
+        <v>17</v>
+      </c>
+      <c r="E95" s="1">
+        <v>8</v>
+      </c>
+      <c r="F95" s="1">
+        <v>3</v>
+      </c>
+      <c r="G95" s="1">
+        <v>9</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I95" s="3">
+        <v>43486</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>11</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P95" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R95" s="1">
+        <v>12</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U95" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V95" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W95" s="1">
+        <v>7</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y95" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD95" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>34</v>
+      </c>
+      <c r="AH95" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="AI95" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK95" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL95" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM95" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="AN95" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="AO95" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP95" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ95" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR95" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="AS95" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="AT95" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU95" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV95" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW95" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="AX95" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="AY95" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ95" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA95" s="1">
+        <v>13</v>
+      </c>
+      <c r="BB95" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="BC95" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="BD95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE95" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+    <row r="96" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>785</v>
+      </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-      <c r="AE96" s="1"/>
-      <c r="AF96" s="1"/>
-      <c r="AG96" s="1"/>
-      <c r="AH96" s="1"/>
-      <c r="AI96" s="1"/>
-      <c r="AJ96" s="1"/>
-      <c r="AK96" s="1"/>
-      <c r="AL96" s="1"/>
-      <c r="AM96" s="1"/>
-      <c r="AN96" s="1"/>
-      <c r="AO96" s="1"/>
-      <c r="AP96" s="1"/>
-      <c r="AQ96" s="1"/>
-      <c r="AR96" s="1"/>
-      <c r="AS96" s="1"/>
-      <c r="AT96" s="1"/>
-      <c r="AU96" s="1"/>
-      <c r="AV96" s="1"/>
-      <c r="AW96" s="1"/>
-      <c r="AX96" s="1"/>
-      <c r="AY96" s="1"/>
-      <c r="AZ96" s="1"/>
-      <c r="BA96" s="1"/>
-      <c r="BB96" s="1"/>
-      <c r="BC96" s="1"/>
-      <c r="BD96" s="1"/>
-      <c r="BE96" s="1"/>
+      <c r="D96" s="1">
+        <v>51</v>
+      </c>
+      <c r="E96" s="1">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1">
+        <v>3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>8</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I96" s="3">
+        <v>43497</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>19</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P96" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R96" s="1">
+        <v>10</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U96" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V96" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W96" s="1">
+        <v>10</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC96" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD96" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH96" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AI96" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK96" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL96" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM96" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="AN96" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="AO96" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP96" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ96" s="1">
+        <v>24</v>
+      </c>
+      <c r="AR96" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="AS96" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="AT96" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV96" s="1">
+        <v>50</v>
+      </c>
+      <c r="AW96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX96" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="AY96" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ96" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA96" s="1">
+        <v>11</v>
+      </c>
+      <c r="BB96" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="BC96" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="BD96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF96" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
-      <c r="AF97" s="1"/>
-      <c r="AG97" s="1"/>
-      <c r="AH97" s="1"/>
-      <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
-      <c r="AL97" s="1"/>
-      <c r="AM97" s="1"/>
-      <c r="AN97" s="1"/>
-      <c r="AO97" s="1"/>
-      <c r="AP97" s="1"/>
-      <c r="AQ97" s="1"/>
-      <c r="AR97" s="1"/>
-      <c r="AS97" s="1"/>
-      <c r="AT97" s="1"/>
-      <c r="AU97" s="1"/>
-      <c r="AV97" s="1"/>
-      <c r="AW97" s="1"/>
-      <c r="AX97" s="1"/>
-      <c r="AY97" s="1"/>
-      <c r="AZ97" s="1"/>
-      <c r="BA97" s="1"/>
-      <c r="BB97" s="1"/>
-      <c r="BC97" s="1"/>
-      <c r="BD97" s="1"/>
-      <c r="BE97" s="1"/>
+    <row r="97" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D97" s="1">
+        <v>404</v>
+      </c>
+      <c r="E97" s="1">
+        <v>6</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3</v>
+      </c>
+      <c r="G97" s="1">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I97" s="3">
+        <v>43519</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>12</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P97" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R97" s="1">
+        <v>17</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T97" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="U97" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V97" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W97" s="1">
+        <v>20</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y97" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>21</v>
+      </c>
+      <c r="AC97" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AD97" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG97" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH97" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AI97" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="AJ97" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL97" s="1">
+        <v>18</v>
+      </c>
+      <c r="AM97" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AN97" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="AO97" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP97" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ97" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR97" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="AS97" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="AT97" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU97" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV97" s="1">
+        <v>20</v>
+      </c>
+      <c r="AW97" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="AX97" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="AY97" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ97" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA97" s="1">
+        <v>15</v>
+      </c>
+      <c r="BB97" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="BC97" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="BD97" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE97" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-      <c r="AA98" s="1"/>
-      <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="1"/>
-      <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-      <c r="AH98" s="1"/>
-      <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
-      <c r="AL98" s="1"/>
-      <c r="AM98" s="1"/>
-      <c r="AN98" s="1"/>
-      <c r="AO98" s="1"/>
-      <c r="AP98" s="1"/>
-      <c r="AQ98" s="1"/>
-      <c r="AR98" s="1"/>
-      <c r="AS98" s="1"/>
-      <c r="AT98" s="1"/>
-      <c r="AU98" s="1"/>
-      <c r="AV98" s="1"/>
-      <c r="AW98" s="1"/>
-      <c r="AX98" s="1"/>
-      <c r="AY98" s="1"/>
-      <c r="AZ98" s="1"/>
-      <c r="BA98" s="1"/>
-      <c r="BB98" s="1"/>
-      <c r="BC98" s="1"/>
-      <c r="BD98" s="1"/>
-      <c r="BE98" s="1"/>
+    <row r="98" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D98" s="1">
+        <v>421</v>
+      </c>
+      <c r="E98" s="1">
+        <v>6</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3</v>
+      </c>
+      <c r="G98" s="1">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I98" s="3">
+        <v>43529</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>33</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="P98" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R98" s="1">
+        <v>18</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U98" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V98" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W98" s="1">
+        <v>24</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y98" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC98" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="AD98" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH98" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="AI98" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="AJ98" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK98" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL98" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM98" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="AN98" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="AO98" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP98" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ98" s="1">
+        <v>23</v>
+      </c>
+      <c r="AR98" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="AS98" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="AT98" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU98" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV98" s="1">
+        <v>44</v>
+      </c>
+      <c r="AW98" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="AX98" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="AY98" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ98" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA98" s="1">
+        <v>24</v>
+      </c>
+      <c r="BB98" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="BC98" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="BD98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE98" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
-      <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
-      <c r="AN99" s="1"/>
-      <c r="AO99" s="1"/>
-      <c r="AP99" s="1"/>
-      <c r="AQ99" s="1"/>
-      <c r="AR99" s="1"/>
-      <c r="AS99" s="1"/>
-      <c r="AT99" s="1"/>
-      <c r="AU99" s="1"/>
-      <c r="AV99" s="1"/>
-      <c r="AW99" s="1"/>
-      <c r="AX99" s="1"/>
-      <c r="AY99" s="1"/>
-      <c r="AZ99" s="1"/>
-      <c r="BA99" s="1"/>
-      <c r="BB99" s="1"/>
-      <c r="BC99" s="1"/>
-      <c r="BD99" s="1"/>
-      <c r="BE99" s="1"/>
+    <row r="99" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D99" s="1">
+        <v>415</v>
+      </c>
+      <c r="E99" s="1">
+        <v>5</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>12</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I99" s="3">
+        <v>43529</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>61</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="P99" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R99" s="1">
+        <v>20</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U99" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V99" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W99" s="1">
+        <v>15</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y99" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB99" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC99" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="AD99" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="AE99" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG99" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH99" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="AI99" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="AJ99" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK99" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL99" s="1">
+        <v>18</v>
+      </c>
+      <c r="AM99" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="AN99" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="AO99" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP99" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ99" s="1">
+        <v>14</v>
+      </c>
+      <c r="AR99" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="AS99" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="AT99" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU99" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV99" s="1">
+        <v>16</v>
+      </c>
+      <c r="AW99" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="AX99" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="AY99" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ99" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA99" s="1">
+        <v>14</v>
+      </c>
+      <c r="BB99" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="BC99" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="BD99" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE99" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+    <row r="100" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>810</v>
+      </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
-      <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-      <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
-      <c r="AM100" s="1"/>
-      <c r="AN100" s="1"/>
-      <c r="AO100" s="1"/>
-      <c r="AP100" s="1"/>
-      <c r="AQ100" s="1"/>
-      <c r="AR100" s="1"/>
-      <c r="AS100" s="1"/>
-      <c r="AT100" s="1"/>
-      <c r="AU100" s="1"/>
-      <c r="AV100" s="1"/>
-      <c r="AW100" s="1"/>
-      <c r="AX100" s="1"/>
-      <c r="AY100" s="1"/>
-      <c r="AZ100" s="1"/>
-      <c r="BA100" s="1"/>
-      <c r="BB100" s="1"/>
-      <c r="BC100" s="1"/>
-      <c r="BD100" s="1"/>
-      <c r="BE100" s="1"/>
+      <c r="D100" s="1">
+        <v>422</v>
+      </c>
+      <c r="E100" s="1">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>4</v>
+      </c>
+      <c r="G100" s="1">
+        <v>9</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I100" s="3">
+        <v>43529</v>
+      </c>
+      <c r="J100" s="4">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>25</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P100" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R100" s="1">
+        <v>18</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U100" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V100" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W100" s="1">
+        <v>21</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y100" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="Z100" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB100" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC100" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="AD100" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE100" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF100" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG100" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH100" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="AI100" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="AJ100" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK100" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL100" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM100" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="AN100" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="AO100" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP100" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ100" s="1">
+        <v>19</v>
+      </c>
+      <c r="AR100" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="AS100" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="AT100" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU100" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV100" s="1">
+        <v>15</v>
+      </c>
+      <c r="AW100" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AX100" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="AY100" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ100" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA100" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB100" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="BC100" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="BD100" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE100" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF100" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+    <row r="101" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>836</v>
+      </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
-      <c r="Z101" s="1"/>
-      <c r="AA101" s="1"/>
-      <c r="AB101" s="1"/>
-      <c r="AC101" s="1"/>
-      <c r="AD101" s="1"/>
-      <c r="AE101" s="1"/>
-      <c r="AF101" s="1"/>
-      <c r="AG101" s="1"/>
-      <c r="AH101" s="1"/>
-      <c r="AI101" s="1"/>
-      <c r="AJ101" s="1"/>
-      <c r="AK101" s="1"/>
-      <c r="AL101" s="1"/>
-      <c r="AM101" s="1"/>
-      <c r="AN101" s="1"/>
-      <c r="AO101" s="1"/>
-      <c r="AP101" s="1"/>
-      <c r="AQ101" s="1"/>
-      <c r="AR101" s="1"/>
-      <c r="AS101" s="1"/>
-      <c r="AT101" s="1"/>
-      <c r="AU101" s="1"/>
-      <c r="AV101" s="1"/>
-      <c r="AW101" s="1"/>
-      <c r="AX101" s="1"/>
-      <c r="AY101" s="1"/>
-      <c r="AZ101" s="1"/>
-      <c r="BA101" s="1"/>
-      <c r="BB101" s="1"/>
-      <c r="BC101" s="1"/>
-      <c r="BD101" s="1"/>
-      <c r="BE101" s="1"/>
+      <c r="D101" s="1">
+        <v>412</v>
+      </c>
+      <c r="E101" s="1">
+        <v>6</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3</v>
+      </c>
+      <c r="G101" s="1">
+        <v>11</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I101" s="3">
+        <v>43529</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="K101" s="1">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>23</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R101" s="1">
+        <v>37</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T101" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="U101" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V101" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W101" s="1">
+        <v>19</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y101" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z101" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC101" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="AD101" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="AE101" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF101" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG101" s="1">
+        <v>18</v>
+      </c>
+      <c r="AH101" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="AI101" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ101" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK101" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL101" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM101" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="AN101" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="AO101" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP101" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ101" s="1">
+        <v>22</v>
+      </c>
+      <c r="AR101" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="AS101" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="AT101" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU101" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV101" s="1">
+        <v>21</v>
+      </c>
+      <c r="AW101" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="AX101" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="AY101" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ101" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA101" s="1">
+        <v>30</v>
+      </c>
+      <c r="BB101" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="BC101" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="BD101" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE101" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF101" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+    <row r="102" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>836</v>
+      </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
-      <c r="AE102" s="1"/>
-      <c r="AF102" s="1"/>
-      <c r="AG102" s="1"/>
-      <c r="AH102" s="1"/>
-      <c r="AI102" s="1"/>
-      <c r="AJ102" s="1"/>
-      <c r="AK102" s="1"/>
-      <c r="AL102" s="1"/>
-      <c r="AM102" s="1"/>
-      <c r="AN102" s="1"/>
-      <c r="AO102" s="1"/>
-      <c r="AP102" s="1"/>
-      <c r="AQ102" s="1"/>
-      <c r="AR102" s="1"/>
-      <c r="AS102" s="1"/>
-      <c r="AT102" s="1"/>
-      <c r="AU102" s="1"/>
-      <c r="AV102" s="1"/>
-      <c r="AW102" s="1"/>
-      <c r="AX102" s="1"/>
-      <c r="AY102" s="1"/>
-      <c r="AZ102" s="1"/>
-      <c r="BA102" s="1"/>
-      <c r="BB102" s="1"/>
-      <c r="BC102" s="1"/>
-      <c r="BD102" s="1"/>
-      <c r="BE102" s="1"/>
+      <c r="D102" s="1">
+        <v>65</v>
+      </c>
+      <c r="E102" s="1">
+        <v>6</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1">
+        <v>11</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I102" s="3">
+        <v>43554</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>21</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="P102" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R102" s="1">
+        <v>28</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T102" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U102" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V102" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W102" s="1">
+        <v>29</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y102" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB102" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC102" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="AD102" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="AE102" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF102" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG102" s="1">
+        <v>43</v>
+      </c>
+      <c r="AH102" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="AI102" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="AJ102" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK102" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL102" s="1">
+        <v>61</v>
+      </c>
+      <c r="AM102" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="AN102" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="AO102" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ102" s="1">
+        <v>61</v>
+      </c>
+      <c r="AR102" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="AS102" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="AT102" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU102" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV102" s="1">
+        <v>61</v>
+      </c>
+      <c r="AW102" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="AX102" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="AY102" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ102" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA102" s="1">
+        <v>61</v>
+      </c>
+      <c r="BB102" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC102" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="BD102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF102" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
-      <c r="Y103" s="1"/>
-      <c r="Z103" s="1"/>
-      <c r="AA103" s="1"/>
-      <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
-      <c r="AD103" s="1"/>
-      <c r="AE103" s="1"/>
-      <c r="AF103" s="1"/>
-      <c r="AG103" s="1"/>
-      <c r="AH103" s="1"/>
-      <c r="AI103" s="1"/>
-      <c r="AJ103" s="1"/>
-      <c r="AK103" s="1"/>
-      <c r="AL103" s="1"/>
-      <c r="AM103" s="1"/>
-      <c r="AN103" s="1"/>
-      <c r="AO103" s="1"/>
-      <c r="AP103" s="1"/>
-      <c r="AQ103" s="1"/>
-      <c r="AR103" s="1"/>
-      <c r="AS103" s="1"/>
-      <c r="AT103" s="1"/>
-      <c r="AU103" s="1"/>
-      <c r="AV103" s="1"/>
-      <c r="AW103" s="1"/>
-      <c r="AX103" s="1"/>
-      <c r="AY103" s="1"/>
-      <c r="AZ103" s="1"/>
-      <c r="BA103" s="1"/>
-      <c r="BB103" s="1"/>
-      <c r="BC103" s="1"/>
-      <c r="BD103" s="1"/>
-      <c r="BE103" s="1"/>
+    <row r="103" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D103" s="1">
+        <v>66</v>
+      </c>
+      <c r="E103" s="1">
+        <v>6</v>
+      </c>
+      <c r="F103" s="1">
+        <v>4</v>
+      </c>
+      <c r="G103" s="1">
+        <v>9</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I103" s="3">
+        <v>43554</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1">
+        <v>16</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P103" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R103" s="1">
+        <v>12</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T103" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U103" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V103" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W103" s="1">
+        <v>15</v>
+      </c>
+      <c r="X103" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y103" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="Z103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA103" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB103" s="1">
+        <v>29</v>
+      </c>
+      <c r="AC103" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="AD103" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="AE103" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG103" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH103" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="AI103" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK103" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL103" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM103" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="AN103" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="AO103" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP103" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ103" s="1">
+        <v>12</v>
+      </c>
+      <c r="AR103" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="AS103" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="AT103" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU103" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV103" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW103" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AX103" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="AY103" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ103" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA103" s="1">
+        <v>14</v>
+      </c>
+      <c r="BB103" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="BC103" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="BD103" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE103" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-      <c r="Y104" s="1"/>
-      <c r="Z104" s="1"/>
-      <c r="AA104" s="1"/>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="1"/>
-      <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
-      <c r="AH104" s="1"/>
-      <c r="AI104" s="1"/>
-      <c r="AJ104" s="1"/>
-      <c r="AK104" s="1"/>
-      <c r="AL104" s="1"/>
-      <c r="AM104" s="1"/>
-      <c r="AN104" s="1"/>
-      <c r="AO104" s="1"/>
-      <c r="AP104" s="1"/>
-      <c r="AQ104" s="1"/>
-      <c r="AR104" s="1"/>
-      <c r="AS104" s="1"/>
-      <c r="AT104" s="1"/>
-      <c r="AU104" s="1"/>
-      <c r="AV104" s="1"/>
-      <c r="AW104" s="1"/>
-      <c r="AX104" s="1"/>
-      <c r="AY104" s="1"/>
-      <c r="AZ104" s="1"/>
-      <c r="BA104" s="1"/>
-      <c r="BB104" s="1"/>
-      <c r="BC104" s="1"/>
-      <c r="BD104" s="1"/>
-      <c r="BE104" s="1"/>
+    <row r="104" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D104" s="1">
+        <v>67</v>
+      </c>
+      <c r="E104" s="1">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1">
+        <v>4</v>
+      </c>
+      <c r="G104" s="1">
+        <v>8</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104" s="3">
+        <v>43554</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1">
+        <v>10</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="P104" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R104" s="1">
+        <v>8</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T104" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U104" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V104" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W104" s="1">
+        <v>11</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y104" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z104" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB104" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC104" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="AD104" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="AE104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG104" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH104" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="AI104" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL104" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM104" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="AN104" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="AO104" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ104" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR104" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="AS104" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="AT104" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU104" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV104" s="1">
+        <v>9</v>
+      </c>
+      <c r="AW104" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="AX104" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="AY104" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ104" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA104" s="1">
+        <v>12</v>
+      </c>
+      <c r="BB104" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="BC104" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="BD104" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE104" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
-      <c r="Y105" s="1"/>
-      <c r="Z105" s="1"/>
-      <c r="AA105" s="1"/>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="1"/>
-      <c r="AF105" s="1"/>
-      <c r="AG105" s="1"/>
-      <c r="AH105" s="1"/>
-      <c r="AI105" s="1"/>
-      <c r="AJ105" s="1"/>
-      <c r="AK105" s="1"/>
-      <c r="AL105" s="1"/>
-      <c r="AM105" s="1"/>
-      <c r="AN105" s="1"/>
-      <c r="AO105" s="1"/>
-      <c r="AP105" s="1"/>
-      <c r="AQ105" s="1"/>
-      <c r="AR105" s="1"/>
-      <c r="AS105" s="1"/>
-      <c r="AT105" s="1"/>
-      <c r="AU105" s="1"/>
-      <c r="AV105" s="1"/>
-      <c r="AW105" s="1"/>
-      <c r="AX105" s="1"/>
-      <c r="AY105" s="1"/>
-      <c r="AZ105" s="1"/>
-      <c r="BA105" s="1"/>
-      <c r="BB105" s="1"/>
-      <c r="BC105" s="1"/>
-      <c r="BD105" s="1"/>
-      <c r="BE105" s="1"/>
+    <row r="105" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D105" s="1">
+        <v>68</v>
+      </c>
+      <c r="E105" s="1">
+        <v>8</v>
+      </c>
+      <c r="F105" s="1">
+        <v>4</v>
+      </c>
+      <c r="G105" s="1">
+        <v>10</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I105" s="3">
+        <v>43554</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1">
+        <v>8</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P105" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R105" s="1">
+        <v>12</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T105" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U105" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V105" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W105" s="1">
+        <v>7</v>
+      </c>
+      <c r="X105" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y105" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z105" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB105" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC105" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="AD105" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="AE105" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF105" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG105" s="1">
+        <v>11</v>
+      </c>
+      <c r="AH105" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AI105" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL105" s="1">
+        <v>18</v>
+      </c>
+      <c r="AM105" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="AN105" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="AO105" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP105" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ105" s="1">
+        <v>18</v>
+      </c>
+      <c r="AR105" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="AS105" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="AT105" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU105" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV105" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW105" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="AX105" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="AY105" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ105" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA105" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB105" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="BC105" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="BD105" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE105" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="106" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
-      <c r="Y106" s="1"/>
-      <c r="Z106" s="1"/>
-      <c r="AA106" s="1"/>
-      <c r="AB106" s="1"/>
-      <c r="AC106" s="1"/>
-      <c r="AD106" s="1"/>
-      <c r="AE106" s="1"/>
-      <c r="AF106" s="1"/>
-      <c r="AG106" s="1"/>
-      <c r="AH106" s="1"/>
-      <c r="AI106" s="1"/>
-      <c r="AJ106" s="1"/>
-      <c r="AK106" s="1"/>
-      <c r="AL106" s="1"/>
-      <c r="AM106" s="1"/>
-      <c r="AN106" s="1"/>
-      <c r="AO106" s="1"/>
-      <c r="AP106" s="1"/>
-      <c r="AQ106" s="1"/>
-      <c r="AR106" s="1"/>
-      <c r="AS106" s="1"/>
-      <c r="AT106" s="1"/>
-      <c r="AU106" s="1"/>
-      <c r="AV106" s="1"/>
-      <c r="AW106" s="1"/>
-      <c r="AX106" s="1"/>
-      <c r="AY106" s="1"/>
-      <c r="AZ106" s="1"/>
-      <c r="BA106" s="1"/>
-      <c r="BB106" s="1"/>
-      <c r="BC106" s="1"/>
-      <c r="BD106" s="1"/>
-      <c r="BE106" s="1"/>
+    <row r="106" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D106" s="1">
+        <v>69</v>
+      </c>
+      <c r="E106" s="1">
+        <v>6</v>
+      </c>
+      <c r="F106" s="1">
+        <v>3</v>
+      </c>
+      <c r="G106" s="1">
+        <v>11</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I106" s="3">
+        <v>43554</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="K106" s="1">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>13</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P106" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R106" s="1">
+        <v>10</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T106" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U106" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V106" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W106" s="1">
+        <v>9</v>
+      </c>
+      <c r="X106" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y106" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB106" s="1">
+        <v>21</v>
+      </c>
+      <c r="AC106" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="AD106" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="AE106" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF106" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG106" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH106" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="AI106" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="AJ106" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL106" s="1">
+        <v>45</v>
+      </c>
+      <c r="AM106" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="AN106" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="AO106" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP106" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ106" s="1">
+        <v>15</v>
+      </c>
+      <c r="AR106" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="AS106" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="AT106" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU106" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV106" s="1">
+        <v>17</v>
+      </c>
+      <c r="AW106" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="AX106" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="AY106" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ106" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA106" s="1">
+        <v>10</v>
+      </c>
+      <c r="BB106" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="BC106" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="BD106" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE106" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+    <row r="107" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>864</v>
+      </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-      <c r="Y107" s="1"/>
-      <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
-      <c r="AD107" s="1"/>
-      <c r="AE107" s="1"/>
-      <c r="AF107" s="1"/>
-      <c r="AG107" s="1"/>
-      <c r="AH107" s="1"/>
-      <c r="AI107" s="1"/>
-      <c r="AJ107" s="1"/>
-      <c r="AK107" s="1"/>
-      <c r="AL107" s="1"/>
-      <c r="AM107" s="1"/>
-      <c r="AN107" s="1"/>
-      <c r="AO107" s="1"/>
-      <c r="AP107" s="1"/>
-      <c r="AQ107" s="1"/>
-      <c r="AR107" s="1"/>
-      <c r="AS107" s="1"/>
-      <c r="AT107" s="1"/>
-      <c r="AU107" s="1"/>
-      <c r="AV107" s="1"/>
-      <c r="AW107" s="1"/>
-      <c r="AX107" s="1"/>
-      <c r="AY107" s="1"/>
-      <c r="AZ107" s="1"/>
-      <c r="BA107" s="1"/>
-      <c r="BB107" s="1"/>
-      <c r="BC107" s="1"/>
-      <c r="BD107" s="1"/>
-      <c r="BE107" s="1"/>
+      <c r="D107" s="1">
+        <v>70</v>
+      </c>
+      <c r="E107" s="1">
+        <v>7</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1">
+        <v>12</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107" s="3">
+        <v>43554</v>
+      </c>
+      <c r="J107" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>61</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O107" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="P107" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R107" s="1">
+        <v>19</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T107" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="U107" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V107" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W107" s="1">
+        <v>10</v>
+      </c>
+      <c r="X107" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y107" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC107" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AD107" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH107" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AI107" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM107" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AN107" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO107" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP107" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ107" s="1">
+        <v>23</v>
+      </c>
+      <c r="AR107" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AS107" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AT107" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU107" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV107" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW107" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AX107" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AY107" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ107" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA107" s="1">
+        <v>24</v>
+      </c>
+      <c r="BB107" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BC107" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BD107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF107" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
-      <c r="Y108" s="1"/>
-      <c r="Z108" s="1"/>
-      <c r="AA108" s="1"/>
-      <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
-      <c r="AD108" s="1"/>
-      <c r="AE108" s="1"/>
-      <c r="AF108" s="1"/>
-      <c r="AG108" s="1"/>
-      <c r="AH108" s="1"/>
-      <c r="AI108" s="1"/>
-      <c r="AJ108" s="1"/>
-      <c r="AK108" s="1"/>
-      <c r="AL108" s="1"/>
-      <c r="AM108" s="1"/>
-      <c r="AN108" s="1"/>
-      <c r="AO108" s="1"/>
-      <c r="AP108" s="1"/>
-      <c r="AQ108" s="1"/>
-      <c r="AR108" s="1"/>
-      <c r="AS108" s="1"/>
-      <c r="AT108" s="1"/>
-      <c r="AU108" s="1"/>
-      <c r="AV108" s="1"/>
-      <c r="AW108" s="1"/>
-      <c r="AX108" s="1"/>
-      <c r="AY108" s="1"/>
-      <c r="AZ108" s="1"/>
-      <c r="BA108" s="1"/>
-      <c r="BB108" s="1"/>
-      <c r="BC108" s="1"/>
-      <c r="BD108" s="1"/>
-      <c r="BE108" s="1"/>
+    <row r="108" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D108" s="1">
+        <v>71</v>
+      </c>
+      <c r="E108" s="1">
+        <v>8</v>
+      </c>
+      <c r="F108" s="1">
+        <v>5</v>
+      </c>
+      <c r="G108" s="1">
+        <v>9</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I108" s="3">
+        <v>43554</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1">
+        <v>9</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P108" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R108" s="1">
+        <v>9</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T108" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U108" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V108" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W108" s="1">
+        <v>8</v>
+      </c>
+      <c r="X108" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y108" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z108" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA108" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB108" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC108" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AD108" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AE108" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF108" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG108" s="1">
+        <v>17</v>
+      </c>
+      <c r="AH108" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AI108" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="AJ108" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK108" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL108" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM108" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AN108" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AO108" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP108" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ108" s="1">
+        <v>26</v>
+      </c>
+      <c r="AR108" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AS108" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AT108" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU108" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV108" s="1">
+        <v>36</v>
+      </c>
+      <c r="AW108" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AX108" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AY108" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ108" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA108" s="1">
+        <v>36</v>
+      </c>
+      <c r="BB108" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BC108" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="BD108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE108" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+    <row r="109" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>958</v>
+      </c>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="Y109" s="1"/>
-      <c r="Z109" s="1"/>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
-      <c r="AE109" s="1"/>
-      <c r="AF109" s="1"/>
-      <c r="AG109" s="1"/>
-      <c r="AH109" s="1"/>
-      <c r="AI109" s="1"/>
-      <c r="AJ109" s="1"/>
-      <c r="AK109" s="1"/>
-      <c r="AL109" s="1"/>
-      <c r="AM109" s="1"/>
-      <c r="AN109" s="1"/>
-      <c r="AO109" s="1"/>
-      <c r="AP109" s="1"/>
-      <c r="AQ109" s="1"/>
-      <c r="AR109" s="1"/>
-      <c r="AS109" s="1"/>
-      <c r="AT109" s="1"/>
-      <c r="AU109" s="1"/>
-      <c r="AV109" s="1"/>
-      <c r="AW109" s="1"/>
-      <c r="AX109" s="1"/>
-      <c r="AY109" s="1"/>
-      <c r="AZ109" s="1"/>
-      <c r="BA109" s="1"/>
-      <c r="BB109" s="1"/>
-      <c r="BC109" s="1"/>
-      <c r="BD109" s="1"/>
-      <c r="BE109" s="1"/>
+      <c r="D109" s="1">
+        <v>72</v>
+      </c>
+      <c r="E109" s="1">
+        <v>6</v>
+      </c>
+      <c r="F109" s="1">
+        <v>6</v>
+      </c>
+      <c r="G109" s="1">
+        <v>9</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I109" s="3">
+        <v>43554</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>29</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P109" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R109" s="1">
+        <v>49</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="U109" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V109" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="W109" s="1">
+        <v>19</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y109" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Z109" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA109" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB109" s="1">
+        <v>34</v>
+      </c>
+      <c r="AC109" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AD109" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AE109" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF109" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG109" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH109" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AI109" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AJ109" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK109" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL109" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM109" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AN109" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AO109" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP109" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ109" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR109" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AS109" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AT109" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU109" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV109" s="1">
+        <v>21</v>
+      </c>
+      <c r="AW109" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AX109" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AY109" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ109" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA109" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB109" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BC109" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BD109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF109" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -18054,7 +22740,7 @@
       <c r="BD110" s="1"/>
       <c r="BE110" s="1"/>
     </row>
-    <row r="111" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -18113,7 +22799,7 @@
       <c r="BD111" s="1"/>
       <c r="BE111" s="1"/>
     </row>
-    <row r="112" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -19766,7 +24452,7 @@
       <c r="BE139" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:BF140">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BF140">
     <sortCondition ref="G2:G140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
